--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_18_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_18_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31224.76037459226</v>
+        <v>23416.49620539387</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33969154.61612365</v>
+        <v>33969154.61612364</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10662833.79977382</v>
+        <v>10662833.79977381</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3553779.370646586</v>
+        <v>3553779.370646585</v>
       </c>
     </row>
     <row r="11">
@@ -1138,55 +1138,55 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>2.873653090726851</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
         <v>3.262548922260276</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2.873653090726851</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>3.262548922260276</v>
-      </c>
-      <c r="X8" t="n">
-        <v>3.262548922260276</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1217,67 +1217,67 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>2.873653090726851</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
       <c r="T9" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1302,14 +1302,14 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
         <v>3.262548922260276</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="U10" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.873653090726851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>309.067382591229</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>136.0829573912423</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H12" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1545,7 +1545,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>97.59530767934504</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>258.7014352855435</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1593,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>361.4649050157285</v>
+        <v>356.3141292052473</v>
       </c>
       <c r="G14" t="n">
         <v>395.5076644073176</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>209.6535390155789</v>
@@ -1666,7 +1666,7 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T15" t="n">
         <v>124.8306395731037</v>
@@ -1770,7 +1770,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1779,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>190.4536394300522</v>
       </c>
       <c r="W16" t="n">
-        <v>25.72126345476415</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>392.4479542521302</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735098</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.4799845637012</v>
@@ -1906,10 +1906,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>323.2115213346352</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T18" t="n">
         <v>124.8306395731037</v>
@@ -2007,7 +2007,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2016,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>49.34995949258636</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>32.01788871693632</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>262.0832236599867</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2089,7 +2089,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>183.4872045441995</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T21" t="n">
         <v>124.8306395731037</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.8929745793989</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2247,10 +2247,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>163.0937685836068</v>
@@ -2304,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>164.9929492572321</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>193.659497337726</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>194.3561342845449</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2487,7 +2487,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>24.41306037003156</v>
+        <v>172.5797271680926</v>
       </c>
       <c r="G25" t="n">
         <v>163.0937685836068</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>65.8149242711323</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>48.50583343253317</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2794,19 +2794,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>195.8230208813468</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>18.03531583081486</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
@@ -2952,7 +2952,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>106.0115043737241</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>132.697824295722</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -3040,13 +3040,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>404.3817318844251</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>307.9518494926194</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T33" t="n">
         <v>124.8306395731037</v>
@@ -3189,10 +3189,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>103.4320834536228</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3201,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>26.23442655955977</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3268,16 +3268,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>14.74974525636901</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>169.0012459373937</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T36" t="n">
         <v>124.8306395731037</v>
@@ -3429,7 +3429,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3438,7 +3438,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>126.0809427646072</v>
+        <v>124.9554984777209</v>
       </c>
       <c r="U37" t="n">
         <v>275.6027656317444</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>65.81492427113186</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>353.1643313904508</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3666,7 +3666,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>49.34995949258575</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3675,10 +3675,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>39.32152394277624</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>156.7012890994288</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>172.5998412330486</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3915,10 +3915,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>170.3421439572533</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>170.3034090720304</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>264.3476845812649</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>392.8310130470534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4140,10 +4140,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4152,10 +4152,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>54.31661462074997</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>170.3034090720304</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.459187765282971</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="C8" t="n">
-        <v>6.459187765282971</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="D8" t="n">
-        <v>3.163683803403904</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="E8" t="n">
-        <v>3.163683803403904</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="F8" t="n">
         <v>0.2610039137808221</v>
@@ -4813,7 +4813,7 @@
         <v>4.180237967355345</v>
       </c>
       <c r="M8" t="n">
-        <v>6.040770853278583</v>
+        <v>6.040770853278585</v>
       </c>
       <c r="N8" t="n">
         <v>7.931409106423309</v>
@@ -4831,25 +4831,25 @@
         <v>13.05019568904111</v>
       </c>
       <c r="S8" t="n">
-        <v>13.05019568904111</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="T8" t="n">
-        <v>13.05019568904111</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="U8" t="n">
-        <v>13.05019568904111</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="V8" t="n">
-        <v>13.05019568904111</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="W8" t="n">
-        <v>9.754691727162038</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="X8" t="n">
         <v>6.459187765282971</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.459187765282971</v>
+        <v>3.163683803403904</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.163683803403904</v>
+        <v>10.14751579941802</v>
       </c>
       <c r="C9" t="n">
-        <v>3.163683803403904</v>
+        <v>10.14751579941802</v>
       </c>
       <c r="D9" t="n">
-        <v>3.163683803403904</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="E9" t="n">
-        <v>3.163683803403904</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="F9" t="n">
-        <v>3.163683803403904</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="G9" t="n">
         <v>0.2610039137808221</v>
@@ -4883,52 +4883,52 @@
         <v>0.4561956203818616</v>
       </c>
       <c r="J9" t="n">
-        <v>3.686119053419535</v>
+        <v>0.9918165824064465</v>
       </c>
       <c r="K9" t="n">
-        <v>4.601580589971188</v>
+        <v>1.907278118958099</v>
       </c>
       <c r="L9" t="n">
-        <v>5.832531600835449</v>
+        <v>3.138229129822361</v>
       </c>
       <c r="M9" t="n">
-        <v>7.268993370305775</v>
+        <v>4.574690899292685</v>
       </c>
       <c r="N9" t="n">
-        <v>8.743474008488581</v>
+        <v>6.049171537475493</v>
       </c>
       <c r="O9" t="n">
-        <v>10.0923357292512</v>
+        <v>7.398033258238114</v>
       </c>
       <c r="P9" t="n">
-        <v>11.17491617791312</v>
+        <v>9.096595895631884</v>
       </c>
       <c r="Q9" t="n">
-        <v>11.89859253828467</v>
+        <v>9.820272256003433</v>
       </c>
       <c r="R9" t="n">
         <v>13.05019568904111</v>
       </c>
       <c r="S9" t="n">
-        <v>13.05019568904111</v>
+        <v>10.14751579941802</v>
       </c>
       <c r="T9" t="n">
-        <v>9.754691727162038</v>
+        <v>10.14751579941802</v>
       </c>
       <c r="U9" t="n">
-        <v>9.754691727162038</v>
+        <v>10.14751579941802</v>
       </c>
       <c r="V9" t="n">
-        <v>6.459187765282971</v>
+        <v>10.14751579941802</v>
       </c>
       <c r="W9" t="n">
-        <v>6.459187765282971</v>
+        <v>10.14751579941802</v>
       </c>
       <c r="X9" t="n">
-        <v>3.163683803403904</v>
+        <v>10.14751579941802</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.163683803403904</v>
+        <v>10.14751579941802</v>
       </c>
     </row>
     <row r="10">
@@ -4950,10 +4950,10 @@
         <v>3.556507875659889</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2610039137808221</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2610039137808221</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="H10" t="n">
         <v>0.2610039137808221</v>
@@ -4962,22 +4962,22 @@
         <v>0.2610039137808221</v>
       </c>
       <c r="J10" t="n">
-        <v>3.490927346818495</v>
+        <v>0.5970352923692027</v>
       </c>
       <c r="K10" t="n">
-        <v>4.043130126599839</v>
+        <v>3.826958725406876</v>
       </c>
       <c r="L10" t="n">
-        <v>4.749759567956966</v>
+        <v>4.533588166764003</v>
       </c>
       <c r="M10" t="n">
-        <v>5.494801237109524</v>
+        <v>5.278629835916561</v>
       </c>
       <c r="N10" t="n">
-        <v>6.222127480619646</v>
+        <v>6.005956079426682</v>
       </c>
       <c r="O10" t="n">
-        <v>6.893930987665054</v>
+        <v>6.677759586472091</v>
       </c>
       <c r="P10" t="n">
         <v>9.820272256003433</v>
@@ -4986,25 +4986,25 @@
         <v>13.05019568904111</v>
       </c>
       <c r="R10" t="n">
-        <v>13.05019568904111</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="S10" t="n">
-        <v>13.05019568904111</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="T10" t="n">
-        <v>13.05019568904111</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="U10" t="n">
-        <v>9.754691727162038</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="V10" t="n">
-        <v>9.754691727162038</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="W10" t="n">
-        <v>6.459187765282971</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="X10" t="n">
-        <v>6.459187765282971</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="Y10" t="n">
         <v>3.556507875659889</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2182.403674944107</v>
+        <v>755.070575821621</v>
       </c>
       <c r="C11" t="n">
-        <v>1744.26120212753</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="D11" t="n">
-        <v>1308.351417301975</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="E11" t="n">
-        <v>874.5766724602698</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F11" t="n">
-        <v>446.7092428694776</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I11" t="n">
         <v>118.4065018001355</v>
@@ -5044,10 +5044,10 @@
         <v>276.0532770435807</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M11" t="n">
         <v>1131.588690455489</v>
@@ -5065,28 +5065,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S11" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T11" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>2319.861207662534</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V11" t="n">
-        <v>2319.861207662534</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W11" t="n">
-        <v>2182.403674944107</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="X11" t="n">
-        <v>2182.403674944107</v>
+        <v>1067.259851166297</v>
       </c>
       <c r="Y11" t="n">
-        <v>2182.403674944107</v>
+        <v>1067.259851166297</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J12" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M12" t="n">
-        <v>803.3877032987879</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P12" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q12" t="n">
-        <v>1614.947661807679</v>
+        <v>1614.947661807678</v>
       </c>
       <c r="R12" t="n">
         <v>1676.651116233592</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>995.4336129072205</v>
+        <v>730.9745012407178</v>
       </c>
       <c r="C13" t="n">
-        <v>822.8719013904455</v>
+        <v>558.4127897239428</v>
       </c>
       <c r="D13" t="n">
-        <v>656.9939085919682</v>
+        <v>558.4127897239428</v>
       </c>
       <c r="E13" t="n">
-        <v>487.2359048427055</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F13" t="n">
-        <v>310.5288508044616</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G13" t="n">
-        <v>145.78767041698</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J13" t="n">
         <v>192.6919004158277</v>
@@ -5205,13 +5205,13 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>862.082053811994</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M13" t="n">
-        <v>992.6864461505235</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N13" t="n">
-        <v>1120.185357954413</v>
+        <v>1539.854607180194</v>
       </c>
       <c r="O13" t="n">
         <v>1657.620488527956</v>
@@ -5223,28 +5223,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S13" t="n">
         <v>2215.901038951971</v>
       </c>
       <c r="T13" t="n">
-        <v>1973.653814855378</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U13" t="n">
-        <v>1973.653814855378</v>
+        <v>1954.586457855462</v>
       </c>
       <c r="V13" t="n">
-        <v>1686.698306725808</v>
+        <v>1667.630949725893</v>
       </c>
       <c r="W13" t="n">
-        <v>1414.6719023121</v>
+        <v>1395.604545312184</v>
       </c>
       <c r="X13" t="n">
-        <v>1414.6719023121</v>
+        <v>1150.212790645597</v>
       </c>
       <c r="Y13" t="n">
-        <v>1187.252231626208</v>
+        <v>922.7931199597049</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1081.54685999802</v>
+        <v>1076.344056149049</v>
       </c>
       <c r="C14" t="n">
-        <v>1081.54685999802</v>
+        <v>1076.344056149049</v>
       </c>
       <c r="D14" t="n">
-        <v>1081.54685999802</v>
+        <v>1076.344056149049</v>
       </c>
       <c r="E14" t="n">
-        <v>1081.54685999802</v>
+        <v>1076.344056149049</v>
       </c>
       <c r="F14" t="n">
         <v>716.4307943255671</v>
@@ -5272,58 +5272,58 @@
         <v>316.9281030050443</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I14" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867024</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S14" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T14" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U14" t="n">
-        <v>1849.01926465316</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="V14" t="n">
-        <v>1486.402314586987</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="W14" t="n">
-        <v>1081.54685999802</v>
+        <v>1484.630179849396</v>
       </c>
       <c r="X14" t="n">
-        <v>1081.54685999802</v>
+        <v>1484.630179849396</v>
       </c>
       <c r="Y14" t="n">
-        <v>1081.54685999802</v>
+        <v>1076.344056149049</v>
       </c>
     </row>
     <row r="15">
@@ -5336,31 +5336,31 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043101</v>
       </c>
       <c r="J15" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L15" t="n">
         <v>551.5786779960906</v>
@@ -5412,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>959.9477806029472</v>
+        <v>566.2333208532364</v>
       </c>
       <c r="C16" t="n">
-        <v>787.3860690861721</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="D16" t="n">
-        <v>621.5080762876948</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E16" t="n">
-        <v>451.7500725384321</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F16" t="n">
-        <v>275.0430185001883</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G16" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H16" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J16" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K16" t="n">
-        <v>289.4920009833859</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L16" t="n">
-        <v>413.3628026016839</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M16" t="n">
-        <v>550.4276429928785</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N16" t="n">
-        <v>1120.185357954413</v>
+        <v>1539.854607180194</v>
       </c>
       <c r="O16" t="n">
         <v>1657.620488527956</v>
@@ -5460,28 +5460,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S16" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T16" t="n">
-        <v>2215.901038951972</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U16" t="n">
-        <v>1937.514407000715</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V16" t="n">
-        <v>1650.558898871145</v>
+        <v>1502.889769338411</v>
       </c>
       <c r="W16" t="n">
-        <v>1624.577824674414</v>
+        <v>1230.863364924703</v>
       </c>
       <c r="X16" t="n">
-        <v>1379.186070007826</v>
+        <v>985.4716102581153</v>
       </c>
       <c r="Y16" t="n">
-        <v>1151.766399321934</v>
+        <v>758.0519395722235</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>755.070575821621</v>
+        <v>1279.031102697185</v>
       </c>
       <c r="C17" t="n">
-        <v>316.9281030050443</v>
+        <v>1279.031102697185</v>
       </c>
       <c r="D17" t="n">
-        <v>316.9281030050443</v>
+        <v>843.1213178716293</v>
       </c>
       <c r="E17" t="n">
-        <v>316.9281030050443</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F17" t="n">
-        <v>316.9281030050443</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G17" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
         <v>276.0532770435806</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
@@ -5545,22 +5545,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U17" t="n">
-        <v>1849.01926465316</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V17" t="n">
-        <v>1486.402314586987</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="W17" t="n">
-        <v>1081.54685999802</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="X17" t="n">
-        <v>755.070575821621</v>
+        <v>1279.031102697185</v>
       </c>
       <c r="Y17" t="n">
-        <v>755.070575821621</v>
+        <v>1279.031102697185</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>542.5713050663908</v>
+        <v>542.5713050663906</v>
       </c>
       <c r="C18" t="n">
-        <v>436.1148439030331</v>
+        <v>436.1148439030329</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495861</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765401</v>
+        <v>246.9041403765398</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927014</v>
       </c>
       <c r="G18" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H18" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J18" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M18" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O18" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P18" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q18" t="n">
         <v>1614.947661807679</v>
@@ -5633,13 +5633,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W18" t="n">
-        <v>945.2284211280532</v>
+        <v>945.228421128053</v>
       </c>
       <c r="X18" t="n">
-        <v>790.3609853669332</v>
+        <v>790.3609853669329</v>
       </c>
       <c r="Y18" t="n">
-        <v>663.8752061461539</v>
+        <v>663.8752061461537</v>
       </c>
     </row>
     <row r="19">
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>566.2333208532364</v>
+        <v>959.9477806029472</v>
       </c>
       <c r="C19" t="n">
-        <v>393.6716093364613</v>
+        <v>787.3860690861721</v>
       </c>
       <c r="D19" t="n">
-        <v>393.6716093364613</v>
+        <v>621.5080762876948</v>
       </c>
       <c r="E19" t="n">
-        <v>223.9136055871985</v>
+        <v>451.7500725384321</v>
       </c>
       <c r="F19" t="n">
-        <v>47.20655154895474</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="G19" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J19" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K19" t="n">
-        <v>564.2504555545214</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L19" t="n">
-        <v>733.4227107706872</v>
+        <v>413.3628026016838</v>
       </c>
       <c r="M19" t="n">
-        <v>1317.603786189002</v>
+        <v>997.5438780199985</v>
       </c>
       <c r="N19" t="n">
-        <v>1887.361501150536</v>
+        <v>1567.301592981533</v>
       </c>
       <c r="O19" t="n">
-        <v>2005.127382498298</v>
+        <v>2104.736723555076</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5700,25 +5700,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2310.479133515832</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T19" t="n">
-        <v>2068.231909419238</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U19" t="n">
-        <v>1789.845277467981</v>
+        <v>2183.559737217692</v>
       </c>
       <c r="V19" t="n">
-        <v>1502.889769338411</v>
+        <v>1896.604229088122</v>
       </c>
       <c r="W19" t="n">
-        <v>1230.863364924703</v>
+        <v>1624.577824674414</v>
       </c>
       <c r="X19" t="n">
-        <v>985.4716102581153</v>
+        <v>1379.186070007826</v>
       </c>
       <c r="Y19" t="n">
-        <v>758.0519395722235</v>
+        <v>1151.766399321934</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1106.599419841793</v>
+        <v>1624.755105488881</v>
       </c>
       <c r="C20" t="n">
-        <v>668.4569470252168</v>
+        <v>1186.612632672305</v>
       </c>
       <c r="D20" t="n">
-        <v>232.5471621996613</v>
+        <v>750.7028478467491</v>
       </c>
       <c r="E20" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F20" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
@@ -5782,22 +5782,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V20" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="W20" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="X20" t="n">
-        <v>1941.185114027048</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="Y20" t="n">
-        <v>1532.898990326701</v>
+        <v>1889.485634438363</v>
       </c>
     </row>
     <row r="21">
@@ -5822,25 +5822,25 @@
         <v>163.5203019927018</v>
       </c>
       <c r="G21" t="n">
-        <v>79.14920158235873</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M21" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
@@ -5886,43 +5886,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>896.8524940391952</v>
+        <v>550.3874362516888</v>
       </c>
       <c r="C22" t="n">
-        <v>724.2907825224202</v>
+        <v>377.8257247349136</v>
       </c>
       <c r="D22" t="n">
-        <v>558.4127897239429</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="E22" t="n">
-        <v>388.6547859746801</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="F22" t="n">
         <v>211.9477319364363</v>
       </c>
       <c r="G22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J22" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K22" t="n">
-        <v>564.2504555545215</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L22" t="n">
-        <v>828.1746199579901</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M22" t="n">
-        <v>1412.355695376305</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N22" t="n">
-        <v>1539.854607180195</v>
+        <v>1399.801244395024</v>
       </c>
       <c r="O22" t="n">
         <v>1657.620488527956</v>
@@ -5937,7 +5937,7 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T22" t="n">
         <v>1973.653814855378</v>
@@ -5946,16 +5946,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V22" t="n">
-        <v>1408.311674774552</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W22" t="n">
         <v>1136.285270360843</v>
       </c>
       <c r="X22" t="n">
-        <v>1136.285270360843</v>
+        <v>969.6257256565677</v>
       </c>
       <c r="Y22" t="n">
-        <v>908.8655996749517</v>
+        <v>742.206054970676</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1106.599419841793</v>
+        <v>1340.617551476506</v>
       </c>
       <c r="C23" t="n">
-        <v>910.9837659653025</v>
+        <v>1340.617551476506</v>
       </c>
       <c r="D23" t="n">
-        <v>475.073981139747</v>
+        <v>1340.617551476506</v>
       </c>
       <c r="E23" t="n">
-        <v>475.073981139747</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F23" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G23" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O23" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P23" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q23" t="n">
         <v>2243.650993163596</v>
@@ -6016,25 +6016,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U23" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V23" t="n">
-        <v>2360.327577447737</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="W23" t="n">
-        <v>2360.327577447737</v>
+        <v>1340.617551476506</v>
       </c>
       <c r="X23" t="n">
-        <v>1941.185114027048</v>
+        <v>1340.617551476506</v>
       </c>
       <c r="Y23" t="n">
-        <v>1532.898990326701</v>
+        <v>1340.617551476506</v>
       </c>
     </row>
     <row r="24">
@@ -6047,25 +6047,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D24" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E24" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F24" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G24" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J24" t="n">
         <v>175.316627066898</v>
@@ -6074,10 +6074,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L24" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M24" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N24" t="n">
         <v>1061.861364220108</v>
@@ -6123,49 +6123,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>807.9003835041292</v>
+        <v>894.4683967363985</v>
       </c>
       <c r="C25" t="n">
-        <v>635.3386719873541</v>
+        <v>721.9066852196235</v>
       </c>
       <c r="D25" t="n">
-        <v>469.4606791888768</v>
+        <v>556.0286924211462</v>
       </c>
       <c r="E25" t="n">
-        <v>299.7026754396141</v>
+        <v>386.2706886718834</v>
       </c>
       <c r="F25" t="n">
-        <v>275.0430185001883</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G25" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H25" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J25" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K25" t="n">
-        <v>202.912315818696</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L25" t="n">
-        <v>744.992999204955</v>
+        <v>831.5726843696448</v>
       </c>
       <c r="M25" t="n">
-        <v>875.5973915434845</v>
+        <v>962.1770767081742</v>
       </c>
       <c r="N25" t="n">
-        <v>1445.355106505019</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O25" t="n">
-        <v>1982.790237078561</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P25" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q25" t="n">
         <v>2343.856484770969</v>
@@ -6180,19 +6180,19 @@
         <v>2118.080353351143</v>
       </c>
       <c r="U25" t="n">
-        <v>1839.693721399886</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="V25" t="n">
-        <v>1552.738213270317</v>
+        <v>1831.124845221573</v>
       </c>
       <c r="W25" t="n">
-        <v>1280.711808856609</v>
+        <v>1559.098440807865</v>
       </c>
       <c r="X25" t="n">
-        <v>1035.320054190021</v>
+        <v>1313.706686141277</v>
       </c>
       <c r="Y25" t="n">
-        <v>807.9003835041292</v>
+        <v>1086.287015455386</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>765.4265856715602</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="C26" t="n">
-        <v>765.4265856715602</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D26" t="n">
-        <v>765.4265856715602</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E26" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F26" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G26" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435804</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867019</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M26" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N26" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O26" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P26" t="n">
         <v>2043.069798152528</v>
@@ -6253,25 +6253,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T26" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U26" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V26" t="n">
-        <v>1997.710627381563</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="W26" t="n">
-        <v>1592.855172792596</v>
+        <v>1340.617551476506</v>
       </c>
       <c r="X26" t="n">
-        <v>1173.712709371907</v>
+        <v>921.4750880558164</v>
       </c>
       <c r="Y26" t="n">
-        <v>765.4265856715602</v>
+        <v>513.1889643554698</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I27" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J27" t="n">
         <v>175.316627066898</v>
@@ -6311,10 +6311,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L27" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M27" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N27" t="n">
         <v>1061.861364220108</v>
@@ -6390,16 +6390,16 @@
         <v>202.912315818696</v>
       </c>
       <c r="L28" t="n">
-        <v>744.992999204955</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M28" t="n">
-        <v>875.5973915434845</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N28" t="n">
-        <v>1445.355106505019</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O28" t="n">
-        <v>1982.790237078562</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P28" t="n">
         <v>2274.089213540313</v>
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>480.9812963906596</v>
+        <v>1080.420058888313</v>
       </c>
       <c r="C29" t="n">
-        <v>480.9812963906596</v>
+        <v>882.6190276950331</v>
       </c>
       <c r="D29" t="n">
-        <v>480.9812963906596</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E29" t="n">
-        <v>47.20655154895474</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F29" t="n">
-        <v>47.20655154895474</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435806</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L29" t="n">
         <v>805.4408022867025</v>
@@ -6481,7 +6481,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P29" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q29" t="n">
         <v>2243.650993163596</v>
@@ -6490,25 +6490,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2342.11008670954</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2342.11008670954</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U29" t="n">
-        <v>2083.039395231054</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V29" t="n">
-        <v>1720.422445164881</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W29" t="n">
-        <v>1315.566990575914</v>
+        <v>1915.005753073567</v>
       </c>
       <c r="X29" t="n">
-        <v>1315.566990575914</v>
+        <v>1915.005753073567</v>
       </c>
       <c r="Y29" t="n">
-        <v>907.2808668755674</v>
+        <v>1506.71962937322</v>
       </c>
     </row>
     <row r="30">
@@ -6521,25 +6521,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C30" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D30" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E30" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F30" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G30" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I30" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J30" t="n">
         <v>175.316627066898</v>
@@ -6548,10 +6548,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L30" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M30" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N30" t="n">
         <v>1061.861364220108</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>724.2907825224202</v>
+        <v>894.4683967363985</v>
       </c>
       <c r="C31" t="n">
-        <v>724.2907825224202</v>
+        <v>787.3860690861721</v>
       </c>
       <c r="D31" t="n">
-        <v>558.4127897239429</v>
+        <v>621.5080762876948</v>
       </c>
       <c r="E31" t="n">
-        <v>388.6547859746801</v>
+        <v>451.7500725384321</v>
       </c>
       <c r="F31" t="n">
-        <v>211.9477319364363</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="G31" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H31" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J31" t="n">
         <v>106.1122152511379</v>
@@ -6627,19 +6627,19 @@
         <v>202.912315818696</v>
       </c>
       <c r="L31" t="n">
-        <v>481.9462364092383</v>
+        <v>588.0160255186812</v>
       </c>
       <c r="M31" t="n">
-        <v>1066.127311827553</v>
+        <v>718.6204178572107</v>
       </c>
       <c r="N31" t="n">
-        <v>1635.885026789087</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O31" t="n">
-        <v>2173.32015736263</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P31" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q31" t="n">
         <v>2343.856484770969</v>
@@ -6651,22 +6651,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T31" t="n">
-        <v>2226.289371088422</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U31" t="n">
-        <v>1947.902739137165</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="V31" t="n">
-        <v>1660.947231007595</v>
+        <v>1831.124845221573</v>
       </c>
       <c r="W31" t="n">
-        <v>1388.920826593887</v>
+        <v>1559.098440807865</v>
       </c>
       <c r="X31" t="n">
-        <v>1143.529071927299</v>
+        <v>1313.706686141277</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.1094012414073</v>
+        <v>1086.287015455386</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1293.318111528908</v>
+        <v>1066.13305005659</v>
       </c>
       <c r="C32" t="n">
-        <v>855.1756387123312</v>
+        <v>627.9905772400134</v>
       </c>
       <c r="D32" t="n">
-        <v>855.1756387123312</v>
+        <v>627.9905772400134</v>
       </c>
       <c r="E32" t="n">
-        <v>855.1756387123312</v>
+        <v>627.9905772400134</v>
       </c>
       <c r="F32" t="n">
-        <v>446.7092428694776</v>
+        <v>627.9905772400134</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M32" t="n">
         <v>1131.58869045549</v>
@@ -6718,7 +6718,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P32" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q32" t="n">
         <v>2243.650993163596</v>
@@ -6733,19 +6733,19 @@
         <v>2319.861207662534</v>
       </c>
       <c r="U32" t="n">
-        <v>2060.790516184048</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V32" t="n">
-        <v>1698.173566117875</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W32" t="n">
-        <v>1293.318111528908</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X32" t="n">
-        <v>1293.318111528908</v>
+        <v>1900.718744241844</v>
       </c>
       <c r="Y32" t="n">
-        <v>1293.318111528908</v>
+        <v>1492.432620541498</v>
       </c>
     </row>
     <row r="33">
@@ -6758,25 +6758,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D33" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E33" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F33" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G33" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I33" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J33" t="n">
         <v>175.316627066898</v>
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>858.3289888817353</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C34" t="n">
-        <v>858.3289888817353</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D34" t="n">
-        <v>753.852136908379</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E34" t="n">
-        <v>584.0941331591162</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F34" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G34" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H34" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J34" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K34" t="n">
-        <v>289.492000983386</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L34" t="n">
-        <v>413.3628026016839</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M34" t="n">
-        <v>997.5438780199987</v>
+        <v>1690.512214359095</v>
       </c>
       <c r="N34" t="n">
-        <v>1567.301592981533</v>
+        <v>1887.361501150536</v>
       </c>
       <c r="O34" t="n">
-        <v>1685.067474329295</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P34" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q34" t="n">
         <v>2343.856484770969</v>
@@ -6885,25 +6885,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S34" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T34" t="n">
-        <v>2360.327577447737</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U34" t="n">
-        <v>2081.94094549648</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.98543736691</v>
+        <v>1668.767762136888</v>
       </c>
       <c r="W34" t="n">
-        <v>1522.959032953202</v>
+        <v>1396.74135772318</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.567278286614</v>
+        <v>1151.349603056593</v>
       </c>
       <c r="Y34" t="n">
-        <v>1050.147607600722</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1355.033554032792</v>
+        <v>489.9727137219379</v>
       </c>
       <c r="C35" t="n">
-        <v>916.8910812162151</v>
+        <v>489.9727137219379</v>
       </c>
       <c r="D35" t="n">
-        <v>480.9812963906596</v>
+        <v>489.9727137219379</v>
       </c>
       <c r="E35" t="n">
-        <v>47.20655154895474</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I35" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q35" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R35" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S35" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T35" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U35" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="V35" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="W35" t="n">
-        <v>2360.327577447737</v>
+        <v>1743.700871327882</v>
       </c>
       <c r="X35" t="n">
-        <v>2189.619248218046</v>
+        <v>1324.558407907192</v>
       </c>
       <c r="Y35" t="n">
-        <v>1781.3331245177</v>
+        <v>916.2722842068457</v>
       </c>
     </row>
     <row r="36">
@@ -7007,13 +7007,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G36" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J36" t="n">
         <v>175.316627066898</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>730.9745012407179</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C37" t="n">
-        <v>558.4127897239429</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D37" t="n">
-        <v>558.4127897239429</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E37" t="n">
-        <v>388.6547859746801</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F37" t="n">
-        <v>211.9477319364363</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J37" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K37" t="n">
-        <v>289.4920009833859</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L37" t="n">
-        <v>413.3628026016839</v>
+        <v>744.9929992049549</v>
       </c>
       <c r="M37" t="n">
-        <v>997.5438780199987</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N37" t="n">
-        <v>1567.301592981533</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O37" t="n">
-        <v>2104.736723555076</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P37" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R37" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S37" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T37" t="n">
-        <v>2232.97308980672</v>
+        <v>2234.109902217715</v>
       </c>
       <c r="U37" t="n">
-        <v>1954.586457855462</v>
+        <v>1955.723270266458</v>
       </c>
       <c r="V37" t="n">
-        <v>1667.630949725893</v>
+        <v>1668.767762136888</v>
       </c>
       <c r="W37" t="n">
-        <v>1395.604545312184</v>
+        <v>1396.74135772318</v>
       </c>
       <c r="X37" t="n">
-        <v>1150.212790645597</v>
+        <v>1151.349603056593</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.7931199597051</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1111.802223690763</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="C38" t="n">
-        <v>673.6597508741866</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D38" t="n">
-        <v>316.9281030050443</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E38" t="n">
-        <v>316.9281030050443</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F38" t="n">
-        <v>316.9281030050443</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G38" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L38" t="n">
         <v>805.440802286702</v>
@@ -7198,28 +7198,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R38" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S38" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T38" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U38" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V38" t="n">
-        <v>1957.24425759636</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="W38" t="n">
-        <v>1957.24425759636</v>
+        <v>1340.617551476505</v>
       </c>
       <c r="X38" t="n">
-        <v>1538.101794175671</v>
+        <v>921.4750880558159</v>
       </c>
       <c r="Y38" t="n">
-        <v>1538.101794175671</v>
+        <v>513.1889643554694</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>542.5713050663909</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>436.1148439030332</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D39" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E39" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F39" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G39" t="n">
-        <v>79.14920158235849</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I39" t="n">
         <v>81.42328772043084</v>
@@ -7295,10 +7295,10 @@
         <v>945.2284211280532</v>
       </c>
       <c r="X39" t="n">
-        <v>790.3609853669333</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y39" t="n">
-        <v>663.875206146154</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="40">
@@ -7308,58 +7308,58 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>863.3185618614019</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C40" t="n">
-        <v>690.7568503446269</v>
+        <v>443.520053268366</v>
       </c>
       <c r="D40" t="n">
-        <v>690.7568503446269</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E40" t="n">
-        <v>520.9988465953642</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F40" t="n">
-        <v>344.2917925571204</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G40" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J40" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K40" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>1106.33113894078</v>
+        <v>744.9929992049549</v>
       </c>
       <c r="M40" t="n">
-        <v>1236.93553127931</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N40" t="n">
-        <v>1806.693246240844</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O40" t="n">
-        <v>2005.127382498297</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P40" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R40" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S40" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T40" t="n">
         <v>2118.080353351143</v>
@@ -7368,16 +7368,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V40" t="n">
-        <v>1799.975010346577</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W40" t="n">
-        <v>1527.948605932868</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X40" t="n">
-        <v>1282.556851266281</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y40" t="n">
-        <v>1055.137180580389</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="41">
@@ -7399,25 +7399,25 @@
         <v>475.073981139747</v>
       </c>
       <c r="F41" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001348</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435801</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228011</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867018</v>
+        <v>805.4408022867019</v>
       </c>
       <c r="M41" t="n">
         <v>1131.588690455489</v>
@@ -7438,25 +7438,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U41" t="n">
-        <v>2360.327577447737</v>
+        <v>2145.517933689757</v>
       </c>
       <c r="V41" t="n">
-        <v>2360.327577447737</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="W41" t="n">
-        <v>2360.327577447737</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="X41" t="n">
-        <v>1941.185114027047</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="Y41" t="n">
-        <v>1941.185114027047</v>
+        <v>1782.900983623584</v>
       </c>
     </row>
     <row r="42">
@@ -7469,7 +7469,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
         <v>341.0245550495863</v>
@@ -7481,13 +7481,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H42" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J42" t="n">
         <v>175.316627066898</v>
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>730.9745012407179</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C43" t="n">
-        <v>558.4127897239429</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D43" t="n">
-        <v>558.4127897239429</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E43" t="n">
-        <v>388.6547859746801</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F43" t="n">
-        <v>211.9477319364363</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895473</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I43" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="J43" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K43" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L43" t="n">
-        <v>1106.33113894078</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M43" t="n">
-        <v>1236.93553127931</v>
+        <v>875.5973915434845</v>
       </c>
       <c r="N43" t="n">
-        <v>1364.434443083199</v>
+        <v>1445.355106505019</v>
       </c>
       <c r="O43" t="n">
-        <v>1657.620488527956</v>
+        <v>1982.790237078562</v>
       </c>
       <c r="P43" t="n">
         <v>2105.896438675981</v>
@@ -7596,25 +7596,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T43" t="n">
-        <v>2118.080353351143</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U43" t="n">
-        <v>1839.693721399886</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="V43" t="n">
-        <v>1667.630949725893</v>
+        <v>1928.945530822401</v>
       </c>
       <c r="W43" t="n">
-        <v>1395.604545312184</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="X43" t="n">
-        <v>1150.212790645597</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7931199597051</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>446.7092428694776</v>
+        <v>713.727106082876</v>
       </c>
       <c r="C44" t="n">
-        <v>446.7092428694776</v>
+        <v>713.727106082876</v>
       </c>
       <c r="D44" t="n">
-        <v>446.7092428694776</v>
+        <v>713.727106082876</v>
       </c>
       <c r="E44" t="n">
-        <v>446.7092428694776</v>
+        <v>713.727106082876</v>
       </c>
       <c r="F44" t="n">
-        <v>446.7092428694776</v>
+        <v>713.727106082876</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I44" t="n">
         <v>118.4065018001353</v>
@@ -7684,7 +7684,7 @@
         <v>1889.485634438363</v>
       </c>
       <c r="V44" t="n">
-        <v>1526.86868437219</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="W44" t="n">
         <v>1122.013229783223</v>
@@ -7693,7 +7693,7 @@
         <v>1122.013229783223</v>
       </c>
       <c r="Y44" t="n">
-        <v>713.7271060828765</v>
+        <v>713.727106082876</v>
       </c>
     </row>
     <row r="45">
@@ -7706,25 +7706,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E45" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J45" t="n">
         <v>175.316627066898</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>616.081764785142</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C46" t="n">
-        <v>443.520053268367</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D46" t="n">
-        <v>443.520053268367</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E46" t="n">
-        <v>443.520053268367</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F46" t="n">
-        <v>266.8129992301232</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G46" t="n">
-        <v>102.0718188426416</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J46" t="n">
         <v>106.1122152511379</v>
@@ -7812,19 +7812,19 @@
         <v>202.912315818696</v>
       </c>
       <c r="L46" t="n">
-        <v>481.9462364092383</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M46" t="n">
-        <v>1066.127311827553</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N46" t="n">
-        <v>1635.885026789087</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O46" t="n">
         <v>2173.32015736263</v>
       </c>
       <c r="P46" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
@@ -7833,25 +7833,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T46" t="n">
-        <v>2118.080353351143</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U46" t="n">
-        <v>1839.693721399886</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="V46" t="n">
-        <v>1552.738213270317</v>
+        <v>1928.945530822401</v>
       </c>
       <c r="W46" t="n">
-        <v>1280.711808856609</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="X46" t="n">
-        <v>1035.320054190021</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="Y46" t="n">
-        <v>807.9003835041292</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
   </sheetData>
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.721517647487969</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>0.6222042310422733</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.807688468737527</v>
+        <v>2.907001885183224</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,10 +8610,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.923123287322518</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>2.704768336622556</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -8628,7 +8628,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.375249808503935</v>
+        <v>2.593604759203898</v>
       </c>
       <c r="Q10" t="n">
         <v>2.860536639450492</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8853,16 +8853,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>175.7179764032068</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>177.1920849464593</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -9087,19 +9087,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>6.525705103702194</v>
+        <v>177.1920849464593</v>
       </c>
       <c r="N16" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -9324,10 +9324,10 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>45.75904403825029</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>458.158265737157</v>
@@ -9336,13 +9336,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>69.27619576520647</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9564,16 +9564,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>141.4680432173441</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>141.4680432173443</v>
       </c>
       <c r="P22" t="n">
         <v>351.0170646165068</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -9807,16 +9807,16 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>30.81754489126183</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>192.4544649334028</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10038,10 +10038,10 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042864</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -10050,7 +10050,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>192.4544649334021</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10275,10 +10275,10 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>156.7304232042871</v>
+        <v>263.8716243249365</v>
       </c>
       <c r="M31" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -10287,7 +10287,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10509,22 +10509,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956006</v>
+        <v>70.05088382580971</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>323.2928365343473</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>169.8916917821538</v>
@@ -10743,16 +10743,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>458.158265737157</v>
+        <v>192.4544649334014</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
@@ -10761,7 +10761,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>69.27619576520601</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>192.4544649334014</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>81.48308576736531</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
@@ -11229,13 +11229,13 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>177.1920849464593</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>22.56277315124862</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821538</v>
@@ -11460,7 +11460,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>156.7304232042871</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>458.1582657371571</v>
@@ -11469,7 +11469,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>158.2045317475392</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -23026,13 +23026,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>428.2881380550396</v>
+        <v>428.677033886573</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>420.7151022041575</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>397.3731502167427</v>
@@ -23071,10 +23071,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.5714639696243</v>
+        <v>79.30891504736402</v>
       </c>
       <c r="T8" t="n">
-        <v>217.819703146337</v>
+        <v>214.5571542240768</v>
       </c>
       <c r="U8" t="n">
         <v>256.6292234284552</v>
@@ -23083,13 +23083,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>397.5443511208167</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>411.6884898642221</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>400.9407135410828</v>
       </c>
     </row>
     <row r="9">
@@ -23105,16 +23105,16 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
-        <v>94.13938596491228</v>
+        <v>90.876837042652</v>
       </c>
       <c r="E9" t="n">
-        <v>93.17921052631581</v>
+        <v>89.91666160405553</v>
       </c>
       <c r="F9" t="n">
-        <v>82.55</v>
+        <v>79.28745107773972</v>
       </c>
       <c r="G9" t="n">
-        <v>81.65185921816891</v>
+        <v>84.52551230889576</v>
       </c>
       <c r="H9" t="n">
         <v>41.26298946135317</v>
@@ -23150,22 +23150,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>62.71451543789636</v>
+        <v>59.84086234716951</v>
       </c>
       <c r="T9" t="n">
-        <v>125.591226385672</v>
+        <v>128.8537753079323</v>
       </c>
       <c r="U9" t="n">
         <v>174.5728047847957</v>
       </c>
       <c r="V9" t="n">
-        <v>193.8637938363604</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W9" t="n">
         <v>183.4695267241379</v>
       </c>
       <c r="X9" t="n">
-        <v>150.0562124812485</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y9" t="n">
         <v>125.2209214285714</v>
@@ -23190,13 +23190,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>171.6774345756011</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9305612960722</v>
       </c>
       <c r="H10" t="n">
-        <v>138.4604679489429</v>
+        <v>135.1979190266826</v>
       </c>
       <c r="I10" t="n">
         <v>87.62897272389382</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>20.98777588476758</v>
+        <v>17.72522696250731</v>
       </c>
       <c r="S10" t="n">
-        <v>157.5652879271376</v>
+        <v>154.3027390048774</v>
       </c>
       <c r="T10" t="n">
-        <v>243.400138899798</v>
+        <v>240.5264858090711</v>
       </c>
       <c r="U10" t="n">
-        <v>272.3858599483459</v>
+        <v>275.6484088706061</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>266.0435914473111</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.2718208883059</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>112.9691921888297</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,19 +23311,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>264.7239426518347</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>33.4253123351322</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>16.90133034620089</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>62.12385027915582</v>
+        <v>67.27462608963702</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,16 +23706,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>93.63231361822167</v>
       </c>
       <c r="W16" t="n">
-        <v>243.5848769148072</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23734,22 +23734,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>36.98904314115754</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23794,10 +23794,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>91.73951745184723</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>93.63231361822145</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>243.5848769148081</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>159.9533511200719</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>245.9497928490883</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -23986,7 +23986,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -24034,10 +24034,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>178.0074579523983</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,10 +24135,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>77.9448878626896</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>240.1015507506849</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>235.0808631087429</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>150.5269231278298</v>
+        <v>2.360256329768731</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>356.2216505089264</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
@@ -24451,7 +24451,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>380.9311639607546</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>256.4799845637012</v>
@@ -24682,19 +24682,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>237.9380272070641</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>267.0243359415286</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>22.02639025653612</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>64.8245900278832</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>107.1269275599054</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24928,13 +24928,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>19.20702341045927</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>87.5558149146982</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24973,19 +24973,19 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>60.78712941686973</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,16 +25125,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>257.8515264887141</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25156,16 +25156,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>414.6872521369187</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>395.5076644073176</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>256.4799845637012</v>
@@ -25216,10 +25216,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>245.9497928490887</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
         <v>131.0206200144773</v>
@@ -25365,7 +25365,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>113.7438090910202</v>
+        <v>114.8692533779066</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>356.2216505089268</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>78.38635558684911</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
@@ -25405,10 +25405,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>256.4799845637012</v>
@@ -25453,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>114.8692533779068</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
         <v>62.46433369811443</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>244.7644291054976</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>265.3352856806299</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>83.88014333065257</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,19 +25836,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
-        <v>113.7438090910206</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>99.002731297541</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>157.6888901987938</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -25879,10 +25879,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>2.676651360264202</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>76.70400539372729</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,19 +26073,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>99.002731297541</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2573.662511572106</v>
+        <v>2573.662511572114</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>409287.5775731573</v>
+        <v>409287.5775731572</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>409287.5775731573</v>
+        <v>409287.5775731572</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>409287.5775731573</v>
+        <v>409287.5775731572</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>409287.5775731572</v>
+        <v>409287.5775731571</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>409287.5775731572</v>
+        <v>409287.5775731573</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>409287.5775731573</v>
+        <v>409287.5775731571</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>409287.5775731573</v>
+        <v>409287.5775731571</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>409287.5775731573</v>
+        <v>409287.5775731571</v>
       </c>
     </row>
     <row r="15">
@@ -26319,25 +26319,25 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>967.2836134934157</v>
+        <v>967.2836134934156</v>
       </c>
       <c r="E2" t="n">
+        <v>157297.5713008173</v>
+      </c>
+      <c r="F2" t="n">
         <v>157297.5713008174</v>
-      </c>
-      <c r="F2" t="n">
-        <v>157297.5713008173</v>
       </c>
       <c r="G2" t="n">
         <v>157297.5713008173</v>
       </c>
       <c r="H2" t="n">
-        <v>157297.5713008174</v>
+        <v>157297.5713008173</v>
       </c>
       <c r="I2" t="n">
         <v>157297.5713008174</v>
       </c>
       <c r="J2" t="n">
-        <v>157297.5713008174</v>
+        <v>157297.5713008173</v>
       </c>
       <c r="K2" t="n">
         <v>157297.5713008174</v>
@@ -26352,10 +26352,10 @@
         <v>157297.5713008173</v>
       </c>
       <c r="O2" t="n">
-        <v>157297.5713008174</v>
+        <v>157297.5713008173</v>
       </c>
       <c r="P2" t="n">
-        <v>157297.5713008174</v>
+        <v>157297.5713008173</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>3293.504824504878</v>
       </c>
       <c r="E3" t="n">
-        <v>548022.1493403781</v>
+        <v>548022.149340378</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>825.7217692837756</v>
       </c>
       <c r="M3" t="n">
-        <v>146237.7281609485</v>
+        <v>146237.7281609484</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>158.2826020797674</v>
       </c>
       <c r="E4" t="n">
-        <v>16511.41869660761</v>
+        <v>16511.41869660762</v>
       </c>
       <c r="F4" t="n">
         <v>16511.4186966076</v>
       </c>
       <c r="G4" t="n">
-        <v>16511.4186966076</v>
+        <v>16511.41869660761</v>
       </c>
       <c r="H4" t="n">
         <v>16511.41869660761</v>
@@ -26444,7 +26444,7 @@
         <v>16511.4186966076</v>
       </c>
       <c r="K4" t="n">
-        <v>16511.41869660761</v>
+        <v>16511.4186966076</v>
       </c>
       <c r="L4" t="n">
         <v>16511.41869660761</v>
@@ -26456,10 +26456,10 @@
         <v>16511.4186966076</v>
       </c>
       <c r="O4" t="n">
+        <v>16511.41869660761</v>
+      </c>
+      <c r="P4" t="n">
         <v>16511.4186966076</v>
-      </c>
-      <c r="P4" t="n">
-        <v>16511.41869660761</v>
       </c>
     </row>
     <row r="5">
@@ -26478,31 +26478,31 @@
         <v>33884.00183384596</v>
       </c>
       <c r="E5" t="n">
+        <v>46051.0812096378</v>
+      </c>
+      <c r="F5" t="n">
         <v>46051.08120963781</v>
       </c>
-      <c r="F5" t="n">
-        <v>46051.08120963782</v>
-      </c>
       <c r="G5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="I5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="J5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="K5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="L5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="M5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="N5" t="n">
         <v>46051.08120963781</v>
@@ -26511,7 +26511,7 @@
         <v>46051.08120963781</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-36368.50564693719</v>
+        <v>-37704.03752859575</v>
       </c>
       <c r="E6" t="n">
-        <v>-453287.0779458061</v>
+        <v>-453840.9583890281</v>
       </c>
       <c r="F6" t="n">
-        <v>94735.0713945719</v>
+        <v>94181.19095135001</v>
       </c>
       <c r="G6" t="n">
-        <v>94735.0713945719</v>
+        <v>94181.19095134998</v>
       </c>
       <c r="H6" t="n">
-        <v>94735.07139457196</v>
+        <v>94181.19095134996</v>
       </c>
       <c r="I6" t="n">
-        <v>94735.07139457202</v>
+        <v>94181.19095135001</v>
       </c>
       <c r="J6" t="n">
-        <v>94735.07139457198</v>
+        <v>94181.19095134998</v>
       </c>
       <c r="K6" t="n">
-        <v>94735.07139457202</v>
+        <v>94181.19095135001</v>
       </c>
       <c r="L6" t="n">
-        <v>93909.34962528816</v>
+        <v>93355.46918206623</v>
       </c>
       <c r="M6" t="n">
-        <v>-51502.6567663765</v>
+        <v>-52056.53720959841</v>
       </c>
       <c r="N6" t="n">
-        <v>94735.07139457192</v>
+        <v>94181.19095134998</v>
       </c>
       <c r="O6" t="n">
-        <v>94735.07139457201</v>
+        <v>94181.19095134998</v>
       </c>
       <c r="P6" t="n">
-        <v>94735.07139457199</v>
+        <v>94181.19095134998</v>
       </c>
     </row>
   </sheetData>
@@ -26746,34 +26746,34 @@
         <v>2.662332998740292</v>
       </c>
       <c r="E3" t="n">
+        <v>466.701928093221</v>
+      </c>
+      <c r="F3" t="n">
         <v>466.7019280932211</v>
       </c>
-      <c r="F3" t="n">
-        <v>466.7019280932212</v>
-      </c>
       <c r="G3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="H3" t="n">
         <v>466.7019280932212</v>
       </c>
       <c r="I3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="J3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="K3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="L3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="O3" t="n">
         <v>466.7019280932212</v>
@@ -26798,40 +26798,40 @@
         <v>3.262548922260276</v>
       </c>
       <c r="E4" t="n">
+        <v>590.081894361934</v>
+      </c>
+      <c r="F4" t="n">
+        <v>590.081894361934</v>
+      </c>
+      <c r="G4" t="n">
         <v>590.0818943619341</v>
       </c>
-      <c r="F4" t="n">
-        <v>590.0818943619342</v>
-      </c>
-      <c r="G4" t="n">
-        <v>590.0818943619342</v>
-      </c>
       <c r="H4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="I4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="J4" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="K4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="L4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="O4" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>2.662332998740292</v>
       </c>
       <c r="E3" t="n">
-        <v>464.0395950944808</v>
+        <v>464.0395950944807</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>3.262548922260276</v>
       </c>
       <c r="E4" t="n">
-        <v>586.8193454396738</v>
+        <v>586.8193454396737</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>3.262548922260276</v>
       </c>
       <c r="M4" t="n">
-        <v>586.8193454396738</v>
+        <v>586.8193454396736</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>3.262548922260276</v>
       </c>
       <c r="M4" t="n">
-        <v>586.8193454396738</v>
+        <v>586.8193454396737</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H11" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062837</v>
@@ -31773,28 +31773,28 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O11" t="n">
         <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q11" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R11" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S11" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,46 +31834,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I12" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P12" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600661</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I13" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M13" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R13" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S13" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H14" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994722</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R14" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,46 +32071,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S15" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I16" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M16" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R16" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H17" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994722</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R17" t="n">
         <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,46 +32308,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N18" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S18" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I19" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R19" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32484,7 +32484,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
         <v>316.1166813548411</v>
@@ -32499,10 +32499,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32545,10 +32545,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562339</v>
@@ -32557,7 +32557,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
         <v>254.3525508108055</v>
@@ -32575,16 +32575,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S21" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,25 +32621,25 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H22" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I22" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
         <v>128.7867795998885</v>
@@ -32651,10 +32651,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R22" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
         <v>14.66668190417549</v>
@@ -32663,7 +32663,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,28 +32706,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -32739,7 +32739,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U23" t="n">
         <v>0.1500950924520911</v>
@@ -32782,13 +32782,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -32800,25 +32800,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U24" t="n">
         <v>0.06604272567356906</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
@@ -32870,7 +32870,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -32894,10 +32894,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U25" t="n">
         <v>0.04590510768130049</v>
@@ -32943,28 +32943,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -32976,7 +32976,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U26" t="n">
         <v>0.1500950924520911</v>
@@ -33019,13 +33019,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916782</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -33037,25 +33037,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U27" t="n">
         <v>0.06604272567356906</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I28" t="n">
         <v>25.30901603495698</v>
@@ -33107,7 +33107,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -33131,10 +33131,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U28" t="n">
         <v>0.04590510768130049</v>
@@ -33180,28 +33180,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -33213,7 +33213,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U29" t="n">
         <v>0.1500950924520911</v>
@@ -33256,13 +33256,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I30" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -33274,25 +33274,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U30" t="n">
         <v>0.06604272567356906</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I31" t="n">
         <v>25.30901603495698</v>
@@ -33344,7 +33344,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
@@ -33368,10 +33368,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T31" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U31" t="n">
         <v>0.04590510768130049</v>
@@ -33417,28 +33417,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -33447,10 +33447,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U32" t="n">
         <v>0.1500950924520911</v>
@@ -33493,46 +33493,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S33" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,25 +33569,25 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I34" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M34" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
         <v>128.7867795998885</v>
@@ -33599,19 +33599,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R34" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,28 +33654,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -33684,10 +33684,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U35" t="n">
         <v>0.1500950924520911</v>
@@ -33730,46 +33730,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S36" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,25 +33806,25 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I37" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
         <v>128.7867795998885</v>
@@ -33836,19 +33836,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R37" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,28 +33891,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -33924,7 +33924,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U38" t="n">
         <v>0.1500950924520911</v>
@@ -33967,13 +33967,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I39" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
@@ -33985,25 +33985,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U39" t="n">
         <v>0.06604272567356906</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I40" t="n">
         <v>25.30901603495698</v>
@@ -34055,7 +34055,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
@@ -34079,10 +34079,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U40" t="n">
         <v>0.04590510768130049</v>
@@ -34207,7 +34207,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916782</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
         <v>94.84175691562339</v>
@@ -34447,7 +34447,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
@@ -35181,10 +35181,10 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M8" t="n">
-        <v>1.879326147397211</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N8" t="n">
-        <v>1.909735609237097</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O8" t="n">
         <v>1.803309182076395</v>
@@ -35251,16 +35251,16 @@
         <v>0.19716334000105</v>
       </c>
       <c r="J9" t="n">
-        <v>3.262548922260276</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K9" t="n">
-        <v>0.924708622779447</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L9" t="n">
         <v>1.243384859458851</v>
       </c>
       <c r="M9" t="n">
-        <v>1.45097148431346</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N9" t="n">
         <v>1.489374382002836</v>
@@ -35269,13 +35269,13 @@
         <v>1.362486586628911</v>
       </c>
       <c r="P9" t="n">
-        <v>1.093515604709008</v>
+        <v>1.715719835751282</v>
       </c>
       <c r="Q9" t="n">
         <v>0.7309862225975241</v>
       </c>
       <c r="R9" t="n">
-        <v>1.16323550581458</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>0.3394256349377582</v>
+      </c>
+      <c r="K10" t="n">
         <v>3.262548922260276</v>
       </c>
-      <c r="K10" t="n">
-        <v>0.5577805856377203</v>
-      </c>
       <c r="L10" t="n">
-        <v>0.7137671124819471</v>
+        <v>0.7137671124819462</v>
       </c>
       <c r="M10" t="n">
         <v>0.7525673425783417</v>
@@ -35348,7 +35348,7 @@
         <v>0.6785894010559685</v>
       </c>
       <c r="P10" t="n">
-        <v>2.955900271048867</v>
+        <v>3.17425522174883</v>
       </c>
       <c r="Q10" t="n">
         <v>3.262548922260276</v>
@@ -35406,28 +35406,28 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062836</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P12" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233713</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35573,16 +35573,16 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>300.8399982398713</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247772</v>
+        <v>309.1157135712365</v>
       </c>
       <c r="N13" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P13" t="n">
         <v>452.8039900485103</v>
@@ -35591,7 +35591,7 @@
         <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,19 +35643,19 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
@@ -35670,7 +35670,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R14" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916797</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
         <v>217.963008964669</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366646</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M16" t="n">
-        <v>138.4493337284795</v>
+        <v>309.1157135712365</v>
       </c>
       <c r="N16" t="n">
-        <v>575.5128433954891</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
-        <v>542.8637682561045</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P16" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,16 +35880,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
         <v>329.4423112816032</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562328</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -35971,19 +35971,19 @@
         <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N18" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002372</v>
       </c>
       <c r="R18" t="n">
         <v>62.32672164233622</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K19" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L19" t="n">
-        <v>170.881065874915</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M19" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N19" t="n">
-        <v>575.5128433954892</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O19" t="n">
-        <v>118.95543570481</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>171.06312119721</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.36368292423</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36120,16 +36120,16 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916793</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562325</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
         <v>217.963008964669</v>
@@ -36211,13 +36211,13 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K22" t="n">
-        <v>375.3116718572665</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L22" t="n">
-        <v>266.5900650540086</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N22" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
-        <v>118.9554357048098</v>
+        <v>260.4234789221541</v>
       </c>
       <c r="P22" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36354,16 +36354,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K23" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
         <v>329.4423112816032</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562339</v>
@@ -36448,7 +36448,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742734</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L25" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M25" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>575.512843395489</v>
+        <v>159.6043244911502</v>
       </c>
       <c r="O25" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
-        <v>294.2413903654062</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027015</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
@@ -36600,19 +36600,19 @@
         <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916782</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J27" t="n">
         <v>94.84175691562339</v>
@@ -36685,7 +36685,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742734</v>
@@ -36758,19 +36758,19 @@
         <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
-        <v>547.5562458447062</v>
+        <v>281.852445040951</v>
       </c>
       <c r="M28" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N28" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O28" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>294.2413903654056</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
         <v>70.4719911420766</v>
@@ -36828,16 +36828,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766676</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
         <v>329.4423112816032</v>
@@ -36846,10 +36846,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
         <v>94.84175691562339</v>
@@ -36922,7 +36922,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742734</v>
@@ -36992,22 +36992,22 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L31" t="n">
-        <v>281.8524450409517</v>
+        <v>388.9936461616011</v>
       </c>
       <c r="M31" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N31" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O31" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q31" t="n">
         <v>70.4719911420766</v>
@@ -37065,28 +37065,28 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -37226,25 +37226,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116994</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L34" t="n">
-        <v>125.1220218366646</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M34" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N34" t="n">
-        <v>575.512843395489</v>
+        <v>198.8376634256981</v>
       </c>
       <c r="O34" t="n">
         <v>118.9554357048098</v>
       </c>
       <c r="P34" t="n">
-        <v>425.0797619663508</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
         <v>240.36368292423</v>
@@ -37302,19 +37302,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J35" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
@@ -37329,7 +37329,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -37396,7 +37396,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
         <v>238.8413159742734</v>
@@ -37463,16 +37463,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
-        <v>125.1220218366646</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M37" t="n">
-        <v>590.0818943619342</v>
+        <v>324.3780935581786</v>
       </c>
       <c r="N37" t="n">
         <v>575.512843395489</v>
@@ -37481,7 +37481,7 @@
         <v>542.8637682561045</v>
       </c>
       <c r="P37" t="n">
-        <v>171.0631211972095</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
         <v>70.4719911420766</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
@@ -37548,7 +37548,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
         <v>329.4423112816032</v>
@@ -37557,10 +37557,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
@@ -37639,7 +37639,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
         <v>547.556245844706</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247772</v>
+        <v>324.3780935581786</v>
       </c>
       <c r="N40" t="n">
-        <v>575.5128433954892</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O40" t="n">
-        <v>200.4385214721751</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P40" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37779,7 +37779,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J41" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K41" t="n">
         <v>238.6582327062838</v>
@@ -37788,10 +37788,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
         <v>316.1166813548411</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916782</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J42" t="n">
         <v>94.84175691562339</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L43" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M43" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O43" t="n">
-        <v>296.1475206512691</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
-        <v>452.8039900485103</v>
+        <v>124.3496985832521</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027015</v>
@@ -38037,7 +38037,7 @@
         <v>269.7982739184533</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.6072676879476</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
         <v>117.855135640546</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
@@ -38177,19 +38177,19 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
-        <v>281.8524450409517</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M46" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N46" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O46" t="n">
-        <v>542.8637682561041</v>
+        <v>277.1599674523491</v>
       </c>
       <c r="P46" t="n">
         <v>101.7869254320035</v>
